--- a/public/reports/purchase_report_g.xlsx
+++ b/public/reports/purchase_report_g.xlsx
@@ -14,15 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
-  <si>
-    <t>SALES REPORT</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
+  <si>
+    <t>PURCHASE STATUS REPORT</t>
   </si>
   <si>
     <t>Generated on</t>
   </si>
   <si>
-    <t>16/1/2019</t>
+    <t>17/1/2019</t>
   </si>
   <si>
     <t>S.NO</t>
@@ -40,6 +40,9 @@
     <t>Amount</t>
   </si>
   <si>
+    <t>Status</t>
+  </si>
+  <si>
     <t>91403</t>
   </si>
   <si>
@@ -52,9 +55,15 @@
     <t>10000.00</t>
   </si>
   <si>
+    <t>purchased_done</t>
+  </si>
+  <si>
     <t>2019/003</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>po/fayyaz threading co/2019/1</t>
   </si>
   <si>
@@ -100,10 +109,28 @@
     <t>72.00</t>
   </si>
   <si>
+    <t>po/abc/2019/5</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>2019-01-18</t>
+  </si>
+  <si>
+    <t>15000.00</t>
+  </si>
+  <si>
+    <t>po/abc/2019/6</t>
+  </si>
+  <si>
+    <t>7500.00</t>
+  </si>
+  <si>
     <t>Total Amount</t>
   </si>
   <si>
-    <t>262973.11</t>
+    <t>285473.11</t>
   </si>
 </sst>
 </file>
@@ -448,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
@@ -478,7 +505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -494,149 +521,216 @@
       <c r="E4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
         <v>22</v>
       </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" t="s">
-        <v>29</v>
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
